--- a/Src/snt_list.xlsx
+++ b/Src/snt_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>СНТАлюминщик</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>Энергетик</t>
+  </si>
+  <si>
+    <t>Ландыш</t>
+  </si>
+  <si>
+    <t>СНТ Ландыш</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -393,11 +399,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -410,6 +427,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,6 +1166,14 @@
       </c>
       <c r="B53" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
